--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Djamel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E3B3F3-645E-40B9-81AE-296E151F3B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF97F37-2A8D-48A8-A410-434CAB35837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>ACCESORIOS PARA LINEALES MAGNETICOS</t>
   </si>
@@ -235,12 +235,6 @@
     <t>APLIQUES Y AROS LED</t>
   </si>
   <si>
-    <t>ESPEJOS LED</t>
-  </si>
-  <si>
-    <t>TIRAS LED Y NEONES LED</t>
-  </si>
-  <si>
     <t>TIRAS Y NEONES LED</t>
   </si>
   <si>
@@ -281,6 +275,21 @@
   </si>
   <si>
     <t>PANTALLAS LED</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>LAMPARAS DECORATIVAS</t>
+  </si>
+  <si>
+    <t>VENTILADORES LED Y APARATOS ELECTRONICOS</t>
+  </si>
+  <si>
+    <t>TUBOS Y PANTALLAS LED</t>
+  </si>
+  <si>
+    <t>ILUMINACION EXTERIOR LED</t>
   </si>
 </sst>
 </file>
@@ -634,971 +643,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="1" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10005</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10010</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10015</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10020</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10025</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10030</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10035</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10040</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10045</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10050</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10055</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10060</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10065</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10070</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10075</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10080</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10085</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10090</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>10095</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10100</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>10105</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>10110</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>10115</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>10120</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>10125</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>10130</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>10135</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>10140</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10145</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>10150</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>10155</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>10160</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>10165</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>10170</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>10175</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>10180</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>10185</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>10190</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>10195</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>10200</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>10205</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>10210</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>10215</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>10220</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>10225</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>10230</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>10235</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>10240</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>10245</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>10250</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>10255</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>10260</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>10265</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>10270</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>10275</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>10280</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>10285</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>10290</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>10295</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>10300</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>10305</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>10310</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>10315</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>10320</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>10325</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>10330</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>10335</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>10340</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>10345</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>10350</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>10355</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>10360</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>10365</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>10370</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>10375</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>10380</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>10385</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>10390</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>10395</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>10400</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>10405</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>10410</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>10415</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>10420</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>10425</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>10430</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>10435</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>10440</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>10445</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>10450</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C92" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C92">
-    <sortCondition ref="C23:C92"/>
-    <sortCondition ref="B23:B92"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
+    <sortCondition ref="D22:D91"/>
+    <sortCondition ref="C22:C91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF97F37-2A8D-48A8-A410-434CAB35837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9F71F-3E1A-4F22-A542-C9BD7795C1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32325" yWindow="1560" windowWidth="18930" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
   <si>
     <t>ACCESORIOS PARA LINEALES MAGNETICOS</t>
   </si>
@@ -40,9 +40,6 @@
     <t>BATERIAS EXTERNAS</t>
   </si>
   <si>
-    <t>BOMBILLA LED SOLAR CON SENSOR</t>
-  </si>
-  <si>
     <t>BOMBILLAS LED</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>TUBOS LED PRO SAMSUNG Y ACCESORIOS</t>
   </si>
   <si>
-    <t>TUBOS LED Y PANTALLAS LED</t>
-  </si>
-  <si>
     <t>VENTILADORES DE PIE</t>
   </si>
   <si>
@@ -199,27 +193,18 @@
     <t>FAROLAS LED PRO SAMSUNG</t>
   </si>
   <si>
-    <t>LAMPARAS LED DECORATIVAS</t>
-  </si>
-  <si>
     <t>LED SOLAR Y FOTOVOLTAICA</t>
   </si>
   <si>
     <t>FUENTES, PERFILES Y CONTROLADORES</t>
   </si>
   <si>
-    <t>VENTILADORES LED</t>
-  </si>
-  <si>
     <t>DOWNLIGHTS Y PLAFONES LED</t>
   </si>
   <si>
     <t>ALUMBRADO PUBLICO LED</t>
   </si>
   <si>
-    <t>ILUMINACION LED EXTERIOR</t>
-  </si>
-  <si>
     <t>SENSORES LED</t>
   </si>
   <si>
@@ -290,6 +275,9 @@
   </si>
   <si>
     <t>ILUMINACION EXTERIOR LED</t>
+  </si>
+  <si>
+    <t>BOMBILLAS LED SOLAR CON SENSOR</t>
   </si>
 </sst>
 </file>
@@ -645,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,16 +645,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -732,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,7 +808,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,10 +883,10 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,10 +895,10 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,10 +907,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,10 +931,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,10 +943,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -967,10 +955,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,10 +967,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,10 +979,10 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,10 +991,10 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,10 +1003,10 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,10 +1015,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,10 +1027,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,10 +1039,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,10 +1063,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,10 +1075,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,10 +1087,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,10 +1099,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,10 +1111,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,10 +1135,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,10 +1147,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,10 +1159,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1183,10 +1171,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1195,10 +1183,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,10 +1195,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,10 +1207,10 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1231,10 +1219,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1246,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,10 +1267,10 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,10 +1279,10 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,10 +1291,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,10 +1303,10 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,10 +1315,10 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,10 +1327,10 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1351,10 +1339,10 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,10 +1351,10 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,10 +1363,10 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,10 +1375,10 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1399,10 +1387,10 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,10 +1399,10 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1423,10 +1411,10 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1435,10 +1423,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,10 +1435,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,10 +1447,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1471,10 +1459,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1483,10 +1471,10 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,10 +1483,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,10 +1495,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,10 +1507,10 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,10 +1519,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,10 +1531,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,10 +1543,10 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,10 +1555,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,10 +1567,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,10 +1579,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,10 +1591,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,10 +1603,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,10 +1615,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D83" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,10 +1627,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1651,10 +1639,10 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,10 +1651,10 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,10 +1663,10 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,10 +1675,10 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,10 +1687,10 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,10 +1699,10 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,10 +1711,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9F71F-3E1A-4F22-A542-C9BD7795C1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8860971-77A5-46D9-AA16-E00B53CEDF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="1560" windowWidth="18930" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>ACCESORIOS PARA LINEALES MAGNETICOS</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>BOMBILLAS LED SOLAR CON SENSOR</t>
+  </si>
+  <si>
+    <t>NEONES LED</t>
   </si>
 </sst>
 </file>
@@ -631,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,1068 +662,1079 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12</v>
-      </c>
+        <v>10105</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>10005</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20</v>
-      </c>
+        <v>10110</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>10010</v>
-      </c>
-      <c r="B4" s="2">
-        <v>6</v>
-      </c>
+        <v>10115</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>10015</v>
-      </c>
-      <c r="B5" s="2">
-        <v>11</v>
-      </c>
+        <v>10120</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>10020</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9</v>
-      </c>
+        <v>10125</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>10025</v>
-      </c>
-      <c r="B7" s="2">
-        <v>17</v>
-      </c>
+        <v>10130</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>10030</v>
-      </c>
-      <c r="B8" s="2">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
+        <v>10135</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>10035</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
+        <v>10140</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>10040</v>
-      </c>
-      <c r="B10" s="2">
-        <v>13</v>
-      </c>
+        <v>10145</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10045</v>
-      </c>
-      <c r="B11" s="2">
-        <v>19</v>
-      </c>
+        <v>10150</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10050</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
+        <v>10155</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>10055</v>
-      </c>
-      <c r="B13" s="2">
-        <v>18</v>
-      </c>
+        <v>10160</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>10060</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
+        <v>10165</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>10065</v>
-      </c>
-      <c r="B15" s="2">
-        <v>15</v>
-      </c>
+        <v>10170</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>10070</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7</v>
-      </c>
+        <v>10175</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>10075</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10</v>
-      </c>
+        <v>10180</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>10080</v>
-      </c>
-      <c r="B18" s="2">
-        <v>14</v>
-      </c>
+        <v>10185</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>10085</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
+        <v>10190</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>10090</v>
-      </c>
-      <c r="B20" s="2">
-        <v>8</v>
-      </c>
+        <v>10195</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>10095</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
+        <v>10200</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>10100</v>
+        <v>10205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>10105</v>
+        <v>10210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>10110</v>
+        <v>10215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>10115</v>
+        <v>10220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>10120</v>
+        <v>10225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>10125</v>
+        <v>10230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>10130</v>
+        <v>10235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>10135</v>
+        <v>10240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>10140</v>
+        <v>10245</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>10145</v>
+        <v>10250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>10150</v>
+        <v>10255</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>10155</v>
+        <v>10260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>10160</v>
+        <v>10265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>10165</v>
+        <v>10270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>10170</v>
+        <v>10275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>10175</v>
+        <v>10280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>10180</v>
+        <v>10285</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>10185</v>
+        <v>10290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>10190</v>
+        <v>10295</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>10195</v>
+        <v>10300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>10200</v>
+        <v>10305</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>10205</v>
+        <v>10310</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>10210</v>
+        <v>10315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>10215</v>
+        <v>10320</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>10220</v>
+        <v>10325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>10225</v>
+        <v>10330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>10230</v>
+        <v>10335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>10235</v>
+        <v>10340</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>10240</v>
+        <v>10345</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>10245</v>
+        <v>10350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>10250</v>
+        <v>10355</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>10255</v>
+        <v>10360</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>10260</v>
+        <v>10365</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>10265</v>
+        <v>10370</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>10270</v>
+        <v>10375</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>10275</v>
+        <v>10380</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>10280</v>
+        <v>10385</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>10285</v>
+        <v>10390</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>10290</v>
+        <v>10395</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>10295</v>
+        <v>10400</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>10300</v>
+        <v>10405</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>10305</v>
+        <v>10410</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>10310</v>
+        <v>10415</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>10315</v>
+        <v>10420</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>10320</v>
+        <v>10425</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>10325</v>
+        <v>10430</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>10330</v>
+        <v>10435</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>10335</v>
+        <v>10440</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>10340</v>
+        <v>10445</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>10345</v>
+        <v>10450</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>10350</v>
+        <v>10455</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>10355</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>10460</v>
+      </c>
+      <c r="B73" s="2">
+        <v>12</v>
+      </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>10360</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>10465</v>
+      </c>
+      <c r="B74" s="2">
+        <v>20</v>
+      </c>
       <c r="C74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>10365</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>10470</v>
+      </c>
+      <c r="B75" s="2">
+        <v>6</v>
+      </c>
       <c r="C75" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>10370</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>10475</v>
+      </c>
+      <c r="B76" s="2">
+        <v>11</v>
+      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>10375</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>10480</v>
+      </c>
+      <c r="B77" s="2">
+        <v>9</v>
+      </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>10380</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>10485</v>
+      </c>
+      <c r="B78" s="2">
+        <v>17</v>
+      </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>10385</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" t="s">
-        <v>38</v>
+        <v>10490</v>
+      </c>
+      <c r="B79" s="2">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>10390</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>10495</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
       <c r="C80" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>10500</v>
+      </c>
+      <c r="B81" s="2">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>10505</v>
+      </c>
+      <c r="B82" s="2">
+        <v>19</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>10510</v>
+      </c>
+      <c r="B83" s="2">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>10515</v>
+      </c>
+      <c r="B84" s="2">
+        <v>18</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>10520</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>10525</v>
+      </c>
+      <c r="B86" s="2">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>10530</v>
+      </c>
+      <c r="B87" s="2">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>10535</v>
+      </c>
+      <c r="B88" s="2">
+        <v>10</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>10395</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>10540</v>
+      </c>
+      <c r="B89" s="2">
+        <v>14</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>10400</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>10545</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>10405</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>10410</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>10550</v>
+      </c>
+      <c r="B91" s="2">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>10415</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>10420</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>10425</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>10430</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D88" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>10555</v>
+      </c>
+      <c r="B92" s="2">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>10435</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>10440</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>10445</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
-    <sortCondition ref="D22:D91"/>
-    <sortCondition ref="C22:C91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
+    <sortCondition ref="D1:D93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8860971-77A5-46D9-AA16-E00B53CEDF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79943AE5-B894-403E-9C8C-417B5C1F2F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,1079 +662,1081 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>10105</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>10520</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>10110</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>10545</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>10115</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>10495</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>10120</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>10510</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>10125</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>10555</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>10130</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>10470</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>10135</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>10530</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>10140</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>10550</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>10145</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>10480</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10150</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>10535</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10155</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>10475</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>10160</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>10460</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>10165</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>10500</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>10170</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>10540</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>10175</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>10525</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>10180</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
+        <v>10490</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>10185</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>10485</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>10190</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>10515</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>10195</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>10505</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>10200</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>10465</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>10205</v>
+        <v>10105</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>10210</v>
+        <v>10110</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>10215</v>
+        <v>10115</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>10220</v>
+        <v>10120</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>10225</v>
+        <v>10125</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>10230</v>
+        <v>10130</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>10235</v>
+        <v>10135</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>10240</v>
+        <v>10140</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>10245</v>
+        <v>10145</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>10250</v>
+        <v>10150</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>10255</v>
+        <v>10155</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>10260</v>
+        <v>10160</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>10265</v>
+        <v>10165</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>10270</v>
+        <v>10170</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>10275</v>
+        <v>10175</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>10280</v>
+        <v>10180</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>10285</v>
+        <v>10185</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>10290</v>
+        <v>10190</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>10295</v>
+        <v>10195</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>10305</v>
+        <v>10205</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>10310</v>
+        <v>10210</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>10315</v>
+        <v>10215</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>10320</v>
+        <v>10220</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>10325</v>
+        <v>10225</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>10330</v>
+        <v>10230</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>10335</v>
+        <v>10235</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>10340</v>
+        <v>10240</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>10345</v>
+        <v>10245</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>10350</v>
+        <v>10250</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>10355</v>
+        <v>10255</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>10360</v>
+        <v>10260</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>10365</v>
+        <v>10265</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>10370</v>
+        <v>10270</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>10375</v>
+        <v>10275</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>10380</v>
+        <v>10280</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>10385</v>
+        <v>10285</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>10390</v>
+        <v>10290</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>10395</v>
+        <v>10295</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>10405</v>
+        <v>10305</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>10410</v>
+        <v>10310</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>10415</v>
+        <v>10315</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>10420</v>
+        <v>10320</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>10425</v>
+        <v>10325</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>10430</v>
+        <v>10330</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>10435</v>
+        <v>10335</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>10440</v>
+        <v>10340</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>10445</v>
+        <v>10345</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>10450</v>
+        <v>10350</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>10455</v>
+        <v>10355</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>10460</v>
-      </c>
-      <c r="B73" s="2">
-        <v>12</v>
-      </c>
+        <v>10360</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>10465</v>
-      </c>
-      <c r="B74" s="2">
-        <v>20</v>
-      </c>
+        <v>10365</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>10470</v>
-      </c>
-      <c r="B75" s="2">
-        <v>6</v>
-      </c>
+        <v>10370</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>10475</v>
-      </c>
-      <c r="B76" s="2">
-        <v>11</v>
-      </c>
+        <v>10375</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="D76" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>10480</v>
-      </c>
-      <c r="B77" s="2">
-        <v>9</v>
-      </c>
+        <v>10380</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="D77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>10485</v>
-      </c>
-      <c r="B78" s="2">
-        <v>17</v>
-      </c>
+        <v>10385</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>10490</v>
-      </c>
-      <c r="B79" s="2">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
-        <v>54</v>
+        <v>10390</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>10495</v>
-      </c>
-      <c r="B80" s="2">
-        <v>3</v>
-      </c>
+        <v>10395</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>10500</v>
-      </c>
-      <c r="B81" s="2">
-        <v>13</v>
-      </c>
+        <v>10400</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>10505</v>
-      </c>
-      <c r="B82" s="2">
-        <v>19</v>
-      </c>
+        <v>10405</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>10510</v>
-      </c>
-      <c r="B83" s="2">
-        <v>4</v>
-      </c>
+        <v>10410</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>10515</v>
-      </c>
-      <c r="B84" s="2">
-        <v>18</v>
-      </c>
+        <v>10415</v>
+      </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>10520</v>
-      </c>
-      <c r="B85" s="2">
+        <v>10420</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>10425</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>10525</v>
-      </c>
-      <c r="B86" s="2">
-        <v>15</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>10530</v>
-      </c>
-      <c r="B87" s="2">
-        <v>7</v>
-      </c>
+        <v>10430</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>10535</v>
-      </c>
-      <c r="B88" s="2">
-        <v>10</v>
-      </c>
+        <v>10435</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>10540</v>
-      </c>
-      <c r="B89" s="2">
-        <v>14</v>
-      </c>
+        <v>10440</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>10545</v>
-      </c>
-      <c r="B90" s="2">
-        <v>2</v>
-      </c>
+        <v>10445</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>10550</v>
-      </c>
-      <c r="B91" s="2">
-        <v>8</v>
-      </c>
+        <v>10450</v>
+      </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>10555</v>
-      </c>
-      <c r="B92" s="2">
-        <v>5</v>
-      </c>
+        <v>10455</v>
+      </c>
+      <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
-    <sortCondition ref="D1:D93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
+    <sortCondition ref="B2:B94"/>
+    <sortCondition ref="D2:D94"/>
+    <sortCondition ref="C2:C94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79943AE5-B894-403E-9C8C-417B5C1F2F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202A94F-05A6-481E-B82B-0B78F4205B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Djamel\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202A94F-05A6-481E-B82B-0B78F4205B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7811AC54-B450-42ED-8A6E-D008A04245A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>ACCESORIOS PARA LINEALES MAGNETICOS</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>PANTALLAS LED</t>
-  </si>
-  <si>
-    <t>numero</t>
   </si>
   <si>
     <t>LAMPARAS DECORATIVAS</t>
@@ -634,1109 +631,974 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10460</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>10465</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>10470</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>10475</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>10480</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>10485</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>10490</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>10495</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>10500</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10505</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10510</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10515</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>10520</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>10525</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>10530</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>10535</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>10540</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>10545</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>10495</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>10510</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>10550</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>10555</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>10555</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>10470</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>10530</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>10550</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>10480</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10535</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10475</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10460</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>10500</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>10540</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>10525</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>10490</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>10485</v>
-      </c>
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>10515</v>
-      </c>
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>10505</v>
-      </c>
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>10465</v>
-      </c>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>10105</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>10110</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>10115</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>10120</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>10125</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>10130</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>10135</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>10140</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>10145</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>10150</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>10155</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>10160</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>10165</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>10170</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>10175</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>10180</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>10185</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>10190</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>10195</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>10200</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>10205</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>10210</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>10215</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>10220</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>10225</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>10230</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>10235</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>10240</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>10245</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>10250</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>10255</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>10260</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>10265</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>10270</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>10275</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>10280</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>10285</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>10290</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>10295</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>10300</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>10305</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>10310</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>10315</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>10320</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>10325</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>10330</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>10335</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>10340</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>10345</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D70" t="s">
+      <c r="C70" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>10350</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>10355</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>10360</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D73" t="s">
+      <c r="C73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>10365</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C74" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>10370</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C75" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>10375</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>10380</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>10385</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C78" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>10390</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="B79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>10395</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D80" t="s">
+      <c r="C80" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>10400</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D81" t="s">
+      <c r="C81" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>10405</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>10410</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>10415</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>10420</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>10425</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>10430</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D87" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>10435</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D88" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>10440</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D89" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>10445</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D90" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>10450</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>10455</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D92" t="s">
-        <v>82</v>
+      <c r="C92" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
-    <sortCondition ref="B2:B94"/>
-    <sortCondition ref="D2:D94"/>
-    <sortCondition ref="C2:C94"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C92">
+    <sortCondition ref="C22:C92"/>
+    <sortCondition ref="B22:B92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -247,7 +247,7 @@
     <t xml:space="preserve">TIRAS LED</t>
   </si>
   <si>
-    <t xml:space="preserve">TIRAS LED SAMSUNG PRO SAMSUNG</t>
+    <t xml:space="preserve">TIRAS LED PRO SAMSUNG</t>
   </si>
   <si>
     <t xml:space="preserve">PANTALLAS LED</t>
@@ -379,43 +379,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -614,7 +614,7 @@
   <dimension ref="A1:X92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0825A-5726-47C9-9DA9-0D68ED59AACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,272 +27,269 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
-    <t xml:space="preserve">sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALUMBRADO PUBLICO LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLIQUES Y AROS LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBILLAS LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPANAS LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWNLIGHTS Y PLAFONES LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMERGENCIAS LED Y SEÑALIZACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCOS DE CARRIL LED Y ACCESORIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUENTES, PERFILES Y CONTROLADORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMINACION EXTERIOR LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMINACION LED LINEAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPARAS DECORATIVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED SOLAR Y FOTOVOLTAICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIAL ELECTRICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANELES LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROYECTORES LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSORES LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIRAS Y NEONES LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBOS Y PANTALLAS LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADORES LED Y APARATOS ELECTRONICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAROLAS LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAROLAS LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAROLAS LED SOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLIQUES LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBILLAS LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICROICAS LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICROICAS LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPANAS LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWNLIGHTS COB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFONES LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFONES LED SOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFONES Y DOWNLIGHTS LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCES DE EMERGENCIA LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCES DE EMERGENCIA LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCESORIOS PARA LINEALES MAGNETICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCOS DE CARRIL LED MAGNÉTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCOS LED DE CARRIL PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTORCHAS LED SOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCES DE EXTERIOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINEALES LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANILLOS DE LUZ LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUIRNALDAS LED SOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPARAS DECO LED SOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPARAS LED DE PARED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPARAS LED DE TECHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPARAS LED SOLAR DE PARED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCES DECORATIVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCES LED DE MESA Y DE PIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERIE FABRIC BELT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APARATOS SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBILLAS LED SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMARAS SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICROICAS LED SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCOS LED SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPARAS AMBIENTE LED SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINEALES MAGNETICOS LED SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCES DE JARDIN LED SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANELES LED SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFONES LED SMART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMART HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIRAS LED SMART KITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBILLAS LED SOLAR CON SENSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPARAS LED SOLAR DE JARDIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANTALLAS LED SOLAR CON SENSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROYECTORES SOLAR LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRIDAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENCHUFES Y ADAPTADORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANELES LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROYECTORES LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSORES DE MOVIMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEONES LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIRAS LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIRAS LED PRO SAMSUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANTALLAS LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANTALLAS LED IP65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBOS LED PRO SAMSUNG Y ACCESORIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTAVOCES Y AURICULARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATERIAS EXTERNAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSECT KILLER Y ROBOTS ASPIRADORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADORES DE PIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADORES DE TORRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADORES DECORATIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADORES DECORATIVOS DE TECHO</t>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>ALUMBRADO PUBLICO LED</t>
+  </si>
+  <si>
+    <t>APLIQUES Y AROS LED</t>
+  </si>
+  <si>
+    <t>BOMBILLAS LED</t>
+  </si>
+  <si>
+    <t>CAMPANAS LED</t>
+  </si>
+  <si>
+    <t>DOWNLIGHTS Y PLAFONES LED</t>
+  </si>
+  <si>
+    <t>EMERGENCIAS LED Y SEÑALIZACION</t>
+  </si>
+  <si>
+    <t>FOCOS DE CARRIL LED Y ACCESORIOS</t>
+  </si>
+  <si>
+    <t>FUENTES, PERFILES Y CONTROLADORES</t>
+  </si>
+  <si>
+    <t>ILUMINACION EXTERIOR LED</t>
+  </si>
+  <si>
+    <t>ILUMINACION LED LINEAL</t>
+  </si>
+  <si>
+    <t>LAMPARAS DECORATIVAS</t>
+  </si>
+  <si>
+    <t>LED SMART</t>
+  </si>
+  <si>
+    <t>LED SOLAR Y FOTOVOLTAICA</t>
+  </si>
+  <si>
+    <t>MATERIAL ELECTRICO</t>
+  </si>
+  <si>
+    <t>PANELES LED</t>
+  </si>
+  <si>
+    <t>PROYECTORES LED</t>
+  </si>
+  <si>
+    <t>SENSORES LED</t>
+  </si>
+  <si>
+    <t>TIRAS Y NEONES LED</t>
+  </si>
+  <si>
+    <t>TUBOS Y PANTALLAS LED</t>
+  </si>
+  <si>
+    <t>VENTILADORES LED Y APARATOS ELECTRONICOS</t>
+  </si>
+  <si>
+    <t>FAROLAS LED</t>
+  </si>
+  <si>
+    <t>FAROLAS LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>FAROLAS LED SOLAR</t>
+  </si>
+  <si>
+    <t>APLIQUES LED</t>
+  </si>
+  <si>
+    <t>BOMBILLAS LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>DICROICAS LED</t>
+  </si>
+  <si>
+    <t>DICROICAS LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>CAMPANAS LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>DOWNLIGHTS COB</t>
+  </si>
+  <si>
+    <t>PLAFONES LED</t>
+  </si>
+  <si>
+    <t>PLAFONES LED SOLAR</t>
+  </si>
+  <si>
+    <t>PLAFONES Y DOWNLIGHTS LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>LUCES DE EMERGENCIA LED</t>
+  </si>
+  <si>
+    <t>LUCES DE EMERGENCIA LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>ACCESORIOS PARA LINEALES MAGNETICOS</t>
+  </si>
+  <si>
+    <t>FOCOS DE CARRIL LED MAGNÉTICO</t>
+  </si>
+  <si>
+    <t>FOCOS LED DE CARRIL PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>ANTORCHAS LED SOLAR</t>
+  </si>
+  <si>
+    <t>LUCES DE EXTERIOR</t>
+  </si>
+  <si>
+    <t>LINEALES LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>ANILLOS DE LUZ LED</t>
+  </si>
+  <si>
+    <t>GUIRNALDAS LED SOLAR</t>
+  </si>
+  <si>
+    <t>LAMPARAS DECO LED SOLAR</t>
+  </si>
+  <si>
+    <t>LAMPARAS LED DE PARED</t>
+  </si>
+  <si>
+    <t>LAMPARAS LED DE TECHO</t>
+  </si>
+  <si>
+    <t>LAMPARAS LED SOLAR DE PARED</t>
+  </si>
+  <si>
+    <t>LUCES DECORATIVAS</t>
+  </si>
+  <si>
+    <t>LUCES LED DE MESA Y DE PIE</t>
+  </si>
+  <si>
+    <t>SERIE FABRIC BELT</t>
+  </si>
+  <si>
+    <t>APARATOS SMART</t>
+  </si>
+  <si>
+    <t>BOMBILLAS LED SMART</t>
+  </si>
+  <si>
+    <t>CAMARAS SMART</t>
+  </si>
+  <si>
+    <t>DICROICAS LED SMART</t>
+  </si>
+  <si>
+    <t>FOCOS LED SMART</t>
+  </si>
+  <si>
+    <t>LAMPARAS AMBIENTE LED SMART</t>
+  </si>
+  <si>
+    <t>LINEALES MAGNETICOS LED SMART</t>
+  </si>
+  <si>
+    <t>LUCES DE JARDIN LED SMART</t>
+  </si>
+  <si>
+    <t>PANELES LED SMART</t>
+  </si>
+  <si>
+    <t>PLAFONES LED SMART</t>
+  </si>
+  <si>
+    <t>SMART HOME</t>
+  </si>
+  <si>
+    <t>TIRAS LED SMART KITS</t>
+  </si>
+  <si>
+    <t>BOMBILLAS LED SOLAR CON SENSOR</t>
+  </si>
+  <si>
+    <t>LAMPARAS LED SOLAR DE JARDIN</t>
+  </si>
+  <si>
+    <t>PANTALLAS LED SOLAR CON SENSOR</t>
+  </si>
+  <si>
+    <t>PROYECTORES SOLAR LED</t>
+  </si>
+  <si>
+    <t>BRIDAS</t>
+  </si>
+  <si>
+    <t>ENCHUFES Y ADAPTADORES</t>
+  </si>
+  <si>
+    <t>PANELES LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>PROYECTORES LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>SENSORES DE MOVIMIENTO</t>
+  </si>
+  <si>
+    <t>NEONES LED</t>
+  </si>
+  <si>
+    <t>TIRAS LED</t>
+  </si>
+  <si>
+    <t>TIRAS LED PRO SAMSUNG</t>
+  </si>
+  <si>
+    <t>PANTALLAS LED</t>
+  </si>
+  <si>
+    <t>PANTALLAS LED IP65</t>
+  </si>
+  <si>
+    <t>TUBOS LED PRO SAMSUNG Y ACCESORIOS</t>
+  </si>
+  <si>
+    <t>ALTAVOCES Y AURICULARES</t>
+  </si>
+  <si>
+    <t>BATERIAS EXTERNAS</t>
+  </si>
+  <si>
+    <t>INSECT KILLER Y ROBOTS ASPIRADORES</t>
+  </si>
+  <si>
+    <t>VENTILADORES DE PIE</t>
+  </si>
+  <si>
+    <t>VENTILADORES DE TORRE</t>
+  </si>
+  <si>
+    <t>VENTILADORES DECORATIVOS</t>
+  </si>
+  <si>
+    <t>VENTILADORES DECORATIVOS DE TECHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,22 +298,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -341,7 +328,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -349,124 +336,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -474,12 +425,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -508,7 +459,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -529,7 +480,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -580,7 +531,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -598,32 +549,31 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="41.95"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,8 +605,8 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>10460</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -685,8 +635,8 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>10465</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -715,8 +665,8 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>10470</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -745,8 +695,8 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>10475</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -775,8 +725,8 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>10480</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -805,8 +755,8 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>10485</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -835,8 +785,8 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>10490</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -865,8 +815,8 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>10495</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -895,8 +845,8 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>10500</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -925,8 +875,8 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10505</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -955,8 +905,8 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>10510</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -985,8 +935,8 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>10515</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1015,8 +965,8 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>10520</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1045,8 +995,8 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>10525</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1075,8 +1025,8 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>10530</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1105,8 +1055,8 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>10535</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1135,8 +1085,8 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>10540</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1165,8 +1115,8 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>10545</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1195,8 +1145,8 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>10550</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1225,8 +1175,8 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>10555</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1255,8 +1205,8 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>10105</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1287,8 +1237,8 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>10110</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -1319,8 +1269,8 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>10115</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1351,8 +1301,8 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>10120</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -1383,8 +1333,8 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>10125</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -1415,8 +1365,8 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>10130</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -1447,8 +1397,8 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>10135</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -1479,8 +1429,8 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>10140</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -1511,8 +1461,8 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>10145</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -1543,8 +1493,8 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>10150</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -1575,8 +1525,8 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>10155</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -1607,8 +1557,8 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>10160</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -1639,8 +1589,8 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>10165</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -1671,8 +1621,8 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>10170</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -1703,8 +1653,8 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>10175</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -1735,8 +1685,8 @@
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>10180</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -1767,8 +1717,8 @@
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>10185</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -1799,8 +1749,8 @@
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>10190</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -1831,8 +1781,8 @@
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>10195</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1863,8 +1813,8 @@
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>10200</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -1895,8 +1845,8 @@
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>10205</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -1927,8 +1877,8 @@
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>10210</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -1959,8 +1909,8 @@
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>10215</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -1991,8 +1941,8 @@
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="n">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>10220</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -2023,8 +1973,8 @@
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="n">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>10225</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -2055,8 +2005,8 @@
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="n">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>10230</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -2087,8 +2037,8 @@
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="n">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>10235</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -2119,8 +2069,8 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="n">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>10240</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -2151,8 +2101,8 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="n">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>10245</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -2183,8 +2133,8 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="n">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>10250</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -2215,8 +2165,8 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="n">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>10255</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -2247,8 +2197,8 @@
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="n">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>10260</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -2279,8 +2229,8 @@
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="n">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>10265</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -2311,8 +2261,8 @@
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="n">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>10270</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -2343,8 +2293,8 @@
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="n">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>10275</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -2375,8 +2325,8 @@
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="n">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>10280</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -2407,8 +2357,8 @@
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="n">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>10285</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -2439,8 +2389,8 @@
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="n">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>10290</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -2471,8 +2421,8 @@
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="n">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>10295</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -2503,8 +2453,8 @@
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="n">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
         <v>10300</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -2535,8 +2485,8 @@
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="n">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
         <v>10305</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -2567,8 +2517,8 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="n">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
         <v>10310</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -2599,8 +2549,8 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="n">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>10315</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -2631,8 +2581,8 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="n">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>10320</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -2663,8 +2613,8 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="n">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <v>10325</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -2695,8 +2645,8 @@
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="n">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
         <v>10330</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -2727,8 +2677,8 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="n">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
         <v>10335</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -2759,8 +2709,8 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
         <v>10340</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -2791,8 +2741,8 @@
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="n">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
         <v>10345</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -2823,8 +2773,8 @@
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="n">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
         <v>10350</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -2855,8 +2805,8 @@
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="n">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
         <v>10355</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -2887,8 +2837,8 @@
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="n">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
         <v>10360</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -2919,8 +2869,8 @@
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="n">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>10365</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -2951,8 +2901,8 @@
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="n">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
         <v>10370</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -2983,8 +2933,8 @@
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="n">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
         <v>10375</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -3015,8 +2965,8 @@
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="n">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <v>10380</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -3047,8 +2997,8 @@
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="n">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>10385</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -3079,8 +3029,8 @@
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="n">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <v>10390</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -3111,8 +3061,8 @@
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="n">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
         <v>10395</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -3143,8 +3093,8 @@
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <v>10400</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -3175,8 +3125,8 @@
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="n">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>10405</v>
       </c>
       <c r="B82" s="9" t="s">
@@ -3207,8 +3157,8 @@
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="n">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
         <v>10410</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -3239,8 +3189,8 @@
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="n">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
         <v>10415</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -3271,8 +3221,8 @@
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="n">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>10420</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -3303,8 +3253,8 @@
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="n">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>10425</v>
       </c>
       <c r="B86" s="9" t="s">
@@ -3335,8 +3285,8 @@
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="n">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
         <v>10430</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -3367,8 +3317,8 @@
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="n">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
         <v>10435</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -3399,8 +3349,8 @@
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="n">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>10440</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -3431,8 +3381,8 @@
       <c r="W89" s="7"/>
       <c r="X89" s="7"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="n">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>10445</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -3463,8 +3413,8 @@
       <c r="W90" s="7"/>
       <c r="X90" s="7"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="n">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>10450</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -3495,8 +3445,8 @@
       <c r="W91" s="7"/>
       <c r="X91" s="7"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="n">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
         <v>10455</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -3528,12 +3478,7 @@
       <c r="X92" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0825A-5726-47C9-9DA9-0D68ED59AACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D6E431-CE1E-4235-B9FB-4E62F03636A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>sequence</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>LINEALES MAGNETICOS LED SMART</t>
-  </si>
-  <si>
-    <t>LUCES DE JARDIN LED SMART</t>
   </si>
   <si>
     <t>PANELES LED SMART</t>
@@ -561,16 +558,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X92"/>
+  <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -607,12 +605,14 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>10460</v>
+        <v>10175</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -637,12 +637,14 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>10465</v>
+        <v>10425</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -667,10 +669,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>10470</v>
+        <v>10460</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -697,12 +699,14 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>10475</v>
+        <v>10205</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -727,12 +731,14 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>10480</v>
+        <v>10190</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -757,12 +763,14 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>10485</v>
+        <v>10310</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -787,12 +795,14 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>10490</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>10250</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -817,12 +827,14 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>10495</v>
+        <v>10120</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -847,10 +859,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>10500</v>
+        <v>10465</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -877,12 +889,14 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>10505</v>
+        <v>10430</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -907,10 +921,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>10510</v>
+        <v>10470</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -937,12 +951,14 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>10515</v>
+        <v>10125</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -967,12 +983,14 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>10520</v>
+        <v>10255</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -997,12 +1015,14 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>10525</v>
+        <v>10315</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1027,12 +1047,14 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>10530</v>
+        <v>10360</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1057,12 +1079,14 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>10535</v>
+        <v>10260</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1087,10 +1111,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>10540</v>
+        <v>10475</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1117,12 +1141,14 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>10545</v>
+        <v>10140</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1147,12 +1173,14 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>10550</v>
+        <v>10130</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1177,12 +1205,14 @@
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>10555</v>
+        <v>10135</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1207,13 +1237,13 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>10105</v>
+        <v>10265</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1239,13 +1269,13 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>10110</v>
+        <v>10145</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1271,14 +1301,12 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>10115</v>
+        <v>10480</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1303,14 +1331,12 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>10120</v>
+        <v>10485</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1335,13 +1361,13 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>10125</v>
+        <v>10365</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1367,13 +1393,13 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>10130</v>
+        <v>10105</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1399,13 +1425,13 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>10135</v>
+        <v>10110</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1431,13 +1457,13 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>10140</v>
+        <v>10115</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1463,13 +1489,13 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>10145</v>
+        <v>10320</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1495,13 +1521,13 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <v>10150</v>
+        <v>10180</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1527,14 +1553,12 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <v>10155</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>10490</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1559,13 +1583,13 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>10160</v>
+        <v>10185</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1591,13 +1615,13 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>10165</v>
+        <v>10270</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1623,14 +1647,12 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <v>10170</v>
+        <v>10495</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1655,13 +1677,13 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>10175</v>
+        <v>10210</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1687,13 +1709,13 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <v>10180</v>
+        <v>10325</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1719,14 +1741,12 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>10185</v>
+        <v>10500</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1751,14 +1771,12 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>10190</v>
+        <v>10505</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1783,13 +1801,13 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>10195</v>
+        <v>10435</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1815,13 +1833,13 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>10200</v>
+        <v>10275</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1847,10 +1865,10 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>10205</v>
+        <v>10215</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>13</v>
@@ -1879,13 +1897,13 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>10210</v>
+        <v>10330</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1911,14 +1929,12 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>10215</v>
+        <v>10510</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2007,13 +2023,13 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
-        <v>10230</v>
+        <v>10335</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2039,10 +2055,10 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
-        <v>10235</v>
+        <v>10230</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>13</v>
@@ -2071,13 +2087,13 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
-        <v>10240</v>
+        <v>10340</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -2103,14 +2119,12 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
-        <v>10245</v>
+        <v>10515</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2135,14 +2149,12 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
-        <v>10250</v>
+        <v>10520</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -2167,13 +2179,13 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
-        <v>10255</v>
+        <v>10200</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -2199,10 +2211,10 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
-        <v>10260</v>
+        <v>10280</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>14</v>
@@ -2231,13 +2243,13 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>10265</v>
+        <v>10165</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2263,13 +2275,13 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>10270</v>
+        <v>10170</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2295,13 +2307,13 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>10275</v>
+        <v>10195</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -2327,13 +2339,13 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <v>10280</v>
+        <v>10235</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2359,13 +2371,13 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <v>10285</v>
+        <v>10240</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -2391,14 +2403,12 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
-        <v>10290</v>
+        <v>10525</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -2423,13 +2433,13 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
-        <v>10295</v>
+        <v>10390</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -2455,14 +2465,12 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
-        <v>10300</v>
+        <v>10530</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -2487,13 +2495,13 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
-        <v>10305</v>
+        <v>10370</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -2519,13 +2527,13 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <v>10310</v>
+        <v>10290</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -2551,13 +2559,13 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <v>10315</v>
+        <v>10405</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -2583,13 +2591,13 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <v>10320</v>
+        <v>10410</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -2615,10 +2623,10 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>10325</v>
+        <v>10345</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>15</v>
@@ -2647,13 +2655,13 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <v>10330</v>
+        <v>10415</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -2679,13 +2687,13 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>10335</v>
+        <v>10150</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2711,13 +2719,13 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <v>10340</v>
+        <v>10295</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -2743,13 +2751,13 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <v>10345</v>
+        <v>10155</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -2807,13 +2815,13 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <v>10355</v>
+        <v>10160</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -2839,14 +2847,12 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <v>10360</v>
+        <v>10535</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -2871,13 +2877,13 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>10365</v>
+        <v>10375</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -2903,13 +2909,13 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <v>10370</v>
+        <v>10355</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -2935,10 +2941,10 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
-        <v>10375</v>
+        <v>10380</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>18</v>
@@ -2967,13 +2973,13 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
-        <v>10380</v>
+        <v>10385</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -2999,14 +3005,12 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <v>10385</v>
+        <v>10540</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -3031,13 +3035,13 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
-        <v>10390</v>
+        <v>10245</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3063,13 +3067,13 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <v>10395</v>
+        <v>10300</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -3095,10 +3099,10 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
-        <v>10400</v>
+        <v>10395</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>20</v>
@@ -3127,13 +3131,13 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <v>10405</v>
+        <v>10400</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -3159,13 +3163,13 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
-        <v>10410</v>
+        <v>10305</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -3191,14 +3195,12 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <v>10415</v>
+        <v>10545</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -3226,7 +3228,7 @@
         <v>10420</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>21</v>
@@ -3255,14 +3257,12 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
-        <v>10425</v>
+        <v>10550</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -3287,10 +3287,10 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <v>10430</v>
+        <v>10440</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>22</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <v>10435</v>
+        <v>10445</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>22</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <v>10440</v>
+        <v>10450</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>22</v>
@@ -3383,10 +3383,10 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
-        <v>10445</v>
+        <v>10455</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>22</v>
@@ -3415,14 +3415,12 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <v>10450</v>
+        <v>10555</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -3445,39 +3443,10 @@
       <c r="W91" s="7"/>
       <c r="X91" s="7"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
-        <v>10455</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
+    <sortCondition ref="B1:B91"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/common/excel/public_categories_odoo.xlsx
+++ b/data/common/excel/public_categories_odoo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D6E431-CE1E-4235-B9FB-4E62F03636A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA583AC-E4AE-4CB3-A20A-5AA5CC30B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -286,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +309,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +330,11 @@
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,10 +345,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,11 +372,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,647 +624,175 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>10175</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>10460</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>10465</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>10470</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>10475</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>10480</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>10485</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>10490</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>10425</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="9" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>10495</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>10500</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10505</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10510</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>10515</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>10520</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>10525</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>10530</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>10535</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>10540</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>10545</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>10550</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>10555</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>10460</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>10205</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>10190</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>10310</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>10250</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>10120</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>10465</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10430</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>10470</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>10125</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>10255</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>10315</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>10360</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>10260</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>10475</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>10140</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>10130</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-    </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>10135</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>10265</v>
+        <v>10105</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1269,13 +818,13 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>10145</v>
+        <v>10110</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1301,12 +850,14 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>10480</v>
+        <v>10115</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1331,12 +882,14 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>10485</v>
+        <v>10120</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1361,13 +914,13 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>10365</v>
+        <v>10125</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1393,13 +946,13 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>10105</v>
+        <v>10130</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1425,13 +978,13 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>10110</v>
+        <v>10135</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1457,13 +1010,13 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>10115</v>
+        <v>10140</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1489,13 +1042,13 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>10320</v>
+        <v>10145</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1521,13 +1074,13 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <v>10180</v>
+        <v>10150</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1553,12 +1106,14 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <v>10490</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>10155</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1583,13 +1138,13 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>10185</v>
+        <v>10160</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1615,13 +1170,13 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>10270</v>
+        <v>10165</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1647,12 +1202,14 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <v>10495</v>
+        <v>10170</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1677,13 +1234,13 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>10210</v>
+        <v>10175</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1709,13 +1266,13 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <v>10325</v>
+        <v>10180</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1741,12 +1298,14 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>10500</v>
+        <v>10185</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1771,12 +1330,14 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>10505</v>
+        <v>10190</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1801,13 +1362,13 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>10435</v>
+        <v>10195</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1831,15 +1392,15 @@
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>10275</v>
+        <v>10200</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1865,10 +1426,10 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>10215</v>
+        <v>10205</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>13</v>
@@ -1897,13 +1458,13 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>10330</v>
+        <v>10210</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1929,12 +1490,14 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>10510</v>
+        <v>10215</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2023,13 +1586,13 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
-        <v>10335</v>
+        <v>10230</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2055,10 +1618,10 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
-        <v>10230</v>
+        <v>10235</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>13</v>
@@ -2087,13 +1650,13 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
-        <v>10340</v>
+        <v>10240</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -2119,12 +1682,14 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
-        <v>10515</v>
+        <v>10245</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2149,12 +1714,14 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
-        <v>10520</v>
+        <v>10250</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -2179,13 +1746,13 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
-        <v>10200</v>
+        <v>10255</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -2211,10 +1778,10 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
-        <v>10280</v>
+        <v>10260</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>14</v>
@@ -2243,13 +1810,13 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>10165</v>
+        <v>10265</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2275,13 +1842,13 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>10170</v>
+        <v>10270</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2307,13 +1874,13 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>10195</v>
+        <v>10275</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -2339,13 +1906,13 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <v>10235</v>
+        <v>10280</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2371,13 +1938,13 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <v>10240</v>
+        <v>10290</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -2403,12 +1970,14 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
-        <v>10525</v>
+        <v>10295</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -2433,13 +2002,13 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
-        <v>10390</v>
+        <v>10300</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -2465,12 +2034,14 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
-        <v>10530</v>
+        <v>10305</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -2495,13 +2066,13 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
-        <v>10370</v>
+        <v>10310</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -2527,13 +2098,13 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <v>10290</v>
+        <v>10315</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -2559,13 +2130,13 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <v>10405</v>
+        <v>10320</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -2591,13 +2162,13 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <v>10410</v>
+        <v>10325</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -2623,10 +2194,10 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>10345</v>
+        <v>10330</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>15</v>
@@ -2655,13 +2226,13 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <v>10415</v>
+        <v>10335</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -2687,13 +2258,13 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>10150</v>
+        <v>10340</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2719,13 +2290,13 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <v>10295</v>
+        <v>10345</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -2751,13 +2322,13 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <v>10155</v>
+        <v>10350</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -2783,10 +2354,10 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <v>10350</v>
+        <v>10355</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>15</v>
@@ -2815,13 +2386,13 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <v>10160</v>
+        <v>10360</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -2847,12 +2418,14 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <v>10535</v>
+        <v>10365</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -2877,13 +2450,13 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>10375</v>
+        <v>10370</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -2909,13 +2482,13 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <v>10355</v>
+        <v>10375</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -3005,12 +2578,14 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <v>10540</v>
+        <v>10390</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -3035,13 +2610,13 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
-        <v>10245</v>
+        <v>10395</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3067,13 +2642,13 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -3099,13 +2674,13 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
-        <v>10395</v>
+        <v>10405</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -3131,13 +2706,13 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <v>10400</v>
+        <v>10410</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -3163,13 +2738,13 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
-        <v>10305</v>
+        <v>10415</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -3195,12 +2770,14 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
-        <v>10545</v>
+        <v>10420</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -3225,13 +2802,13 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
-        <v>10420</v>
+        <v>10425</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -3257,12 +2834,14 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
-        <v>10550</v>
+        <v>10430</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -3287,10 +2866,10 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
-        <v>10440</v>
+        <v>10435</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>22</v>
@@ -3319,10 +2898,10 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
-        <v>10445</v>
+        <v>10440</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>22</v>
@@ -3351,10 +2930,10 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
-        <v>10450</v>
+        <v>10445</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>22</v>
@@ -3383,10 +2962,10 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
-        <v>10455</v>
+        <v>10450</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>22</v>
@@ -3415,12 +2994,14 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
-        <v>10555</v>
+        <v>10455</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -3444,8 +3025,9 @@
       <c r="X91" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
-    <sortCondition ref="B1:B91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C91">
+    <sortCondition ref="C22:C91"/>
+    <sortCondition ref="B22:B91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
